--- a/biology/Zoologie/Caecum_trachea/Caecum_trachea.xlsx
+++ b/biology/Zoologie/Caecum_trachea/Caecum_trachea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caecum trachea est une espèce de mollusques gastéropodes de l'ordre des Littorinimorpha et de la famille des Caecidae.
 Elle est trouvée sur les côtes rocheuses d'Europe (de la Norvège aux Canaries, en Mer Méditerranée et en Mer Noire).
